--- a/model/Auswertung/Infografiken/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Docling/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>69.56521739130434</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66.88963210702342</v>
+      </c>
+      <c r="G2" t="n">
         <v>41</v>
       </c>
-      <c r="F2" t="n">
-        <v>87.80487804878049</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
-        <v>16</v>
-      </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>85.36585365853658</v>
+      </c>
+      <c r="M2" t="n">
+        <v>60.97560975609756</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12.19512195121951</v>
+      </c>
+      <c r="P2" t="n">
+        <v>36.58536585365854</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.1219512195121951</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.2173913043478261</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>14.06244578754455</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>4.508002204245779e-230</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>81.41263940520446</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>76.57992565055763</v>
+      </c>
+      <c r="G3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
-        <v>85.1063829787234</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>35</v>
-      </c>
       <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>72.3404255319149</v>
+      </c>
+      <c r="M3" t="n">
+        <v>63.82978723404256</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
+        <v>17.02127659574468</v>
+      </c>
+      <c r="P3" t="n">
+        <v>25.53191489361702</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.1702127659574468</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.2909090909090909</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>32.8167027628455</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>1.46604953473053</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>65.30612244897959</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>63.26530612244898</v>
+      </c>
+      <c r="G4" t="n">
         <v>13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="M4" t="n">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="P4" t="n">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.4705882352941176</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>55.44018640293531</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>1.082470388005984e-76</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>542</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>542</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>88</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>414</v>
       </c>
       <c r="C6" t="n">
-        <v>96.61835748792271</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>400</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>96.61835748792271</v>
+      </c>
+      <c r="G6" t="n">
         <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>96.66666666666667</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
         <v>58</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>96.66666666666667</v>
+      </c>
+      <c r="M6" t="n">
+        <v>96.66666666666667</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.03333333333333333</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.06451612903225806</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>8.35588063999618</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>3.794305020877261e-165</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>93.66666666666667</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>93</v>
+      </c>
+      <c r="G7" t="n">
         <v>49</v>
-      </c>
-      <c r="F7" t="n">
-        <v>93.87755102040816</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
         <v>46</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>93.87755102040816</v>
+      </c>
+      <c r="M7" t="n">
+        <v>93.87755102040816</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.122448979591836</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.122448979591836</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.06122448979591837</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>52.42575483883854</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>2.677035016894217e-82</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>252</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>252</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>32</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>547</v>
       </c>
       <c r="C9" t="n">
-        <v>97.44058500914076</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>533</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>97.44058500914076</v>
+      </c>
+      <c r="G9" t="n">
         <v>79</v>
-      </c>
-      <c r="F9" t="n">
-        <v>97.46835443037975</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
         <v>77</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>97.46835443037975</v>
+      </c>
+      <c r="M9" t="n">
+        <v>97.46835443037975</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.531645569620253</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.531645569620253</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.02531645569620253</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.04938271604938271</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>7.809523757372343</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>2.84010673964753e-169</v>
       </c>
     </row>

--- a/model/Auswertung/Infografiken/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Docling/results.xlsx
@@ -550,28 +550,28 @@
         <v>299</v>
       </c>
       <c r="B2" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6689000000000001</v>
+        <v>0.6555</v>
       </c>
       <c r="F2" t="n">
         <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
         <v>10</v>
@@ -580,28 +580,28 @@
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2195</v>
+        <v>1.1707</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7317</v>
+        <v>0.6829</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2857</v>
+        <v>0.3333</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5455</v>
+        <v>0.6364</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1463</v>
+        <v>0.1707</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1935</v>
+        <v>0.2258</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1935</v>
+        <v>0.2258</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2857</v>
+        <v>0.3333</v>
       </c>
       <c r="T2" t="n">
         <v>0.1406</v>
@@ -620,64 +620,64 @@
         <v>269</v>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7658</v>
+        <v>0.7584</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8298</v>
+        <v>0.7872</v>
       </c>
       <c r="M3" t="n">
         <v>0.6596</v>
       </c>
       <c r="N3" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2553</v>
+        <v>0.2766</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2791</v>
+        <v>0.2955</v>
       </c>
       <c r="R3" t="n">
-        <v>0.381</v>
+        <v>0.4127</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4364</v>
+        <v>0.4561</v>
       </c>
       <c r="T3" t="n">
         <v>0.3282</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0147</v>
+        <v>0.0151</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -915,10 +915,10 @@
         <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9388</v>
+        <v>0.7551</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9388</v>
+        <v>0.7551</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -942,16 +942,16 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0612</v>
+        <v>0.2449</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0612</v>
+        <v>0.2449</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1154</v>
+        <v>0.3934</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154</v>
+        <v>0.3934</v>
       </c>
       <c r="T7" t="n">
         <v>0.5243</v>

--- a/model/Auswertung/Infografiken/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Docling/results.xlsx
@@ -547,43 +547,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6555</v>
+        <v>0.6354</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
         <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1707</v>
+        <v>1.1795</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6829</v>
+        <v>0.6923</v>
       </c>
       <c r="N2" t="n">
         <v>0.3333</v>
@@ -592,19 +592,19 @@
         <v>0.6364</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1707</v>
+        <v>0.1795</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2258</v>
+        <v>0.2333</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2258</v>
+        <v>0.2333</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3333</v>
+        <v>0.3415</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1406</v>
+        <v>0.1454</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7584</v>
+        <v>0.8016</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6327</v>
+        <v>0.6413</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,13 +757,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9661999999999999</v>
+        <v>0.9671</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.93</v>
+        <v>0.9296</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9744</v>
+        <v>0.975</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
